--- a/Graficas/indices.xlsx
+++ b/Graficas/indices.xlsx
@@ -15,14 +15,15 @@
     <sheet name="indices" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indices!$A$1:$B$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indices!$A$1:$D$46</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>140-615</t>
   </si>
@@ -178,6 +179,27 @@
   </si>
   <si>
     <t>Good coordination</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Overlap half of the time, but afterwards perfect split up and down / Too low index -&gt; it should be higher</t>
+  </si>
+  <si>
+    <t>Bull/eagle</t>
+  </si>
+  <si>
+    <t>Pretty random, but trying to keep apart from each other</t>
+  </si>
+  <si>
+    <t>Eagle (653) vs semi-bull (randomness)</t>
+  </si>
+  <si>
+    <t>Fighting against unfairness? (randomness)</t>
+  </si>
+  <si>
+    <t>Pretty random, but trying to keep apart from each other (in lesser extent than 590-286)</t>
   </si>
 </sst>
 </file>
@@ -320,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,6 +520,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -661,8 +689,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -860,7 +889,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -869,7 +898,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -878,76 +907,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3</c:v>
@@ -956,43 +985,43 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,139 +1033,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>0.68402581866400003</c:v>
+                  <c:v>-0.31961275139099998</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.14096014415300001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3062430478299998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33270441373100001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39408501523900002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41145468558699999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.41432645311600003</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>0.424874540154</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67298349015699999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.14096014415300001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.3062430478299998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.889931319602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93265086206900005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.81347800235500001</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.71966581152599995</c:v>
+                  <c:v>0.43243509258200002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95949074074100005</c:v>
+                  <c:v>0.43247878772300002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60353111226</c:v>
+                  <c:v>0.49492023107999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96343143739000003</c:v>
+                  <c:v>0.50550076816599998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94567863663999996</c:v>
+                  <c:v>0.54481583231599995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95388168074599999</c:v>
+                  <c:v>0.61124819564900001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87105468669700004</c:v>
+                  <c:v>0.39254260016699999</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.47089669426899999</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.60353111226</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.704133064516</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71449878278000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.81347800235500001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.448496996491</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67298349015699999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68402581866400003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71966581152599995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.72377704462699999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72824877291099999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.75727489659299996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75822516114100003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77752578787799997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.87105468669700004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.889931319602</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.91229978132400003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.91294521637299997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.930865836901</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.93198998178500003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.93265086206900005</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.93843452134799998</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.75822516114100003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.93198998178500003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.31961275139099998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.43243509258200002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.704133064516</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.43247878772300002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.448496996491</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="38">
+                  <c:v>0.93860887096800005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.94567863663999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95388168074599999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95712688323899997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95949074074100005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.96343143739000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0.98991935483899995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.95712688323899997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.61124819564900001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.41145468558699999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.49492023107999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.91229978132400003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.930865836901</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.50550076816599998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.72377704462699999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.33270441373100001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.39408501523900002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.77752578787799997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.91294521637299997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.71449878278000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.93860887096800005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.39254260016699999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.75727489659299996</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.72824877291099999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.54481583231599995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1151,11 +1180,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-419684736"/>
-        <c:axId val="-419688544"/>
+        <c:axId val="985141184"/>
+        <c:axId val="985142816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-419684736"/>
+        <c:axId val="985141184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,12 +1241,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-419688544"/>
+        <c:crossAx val="985142816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-419688544"/>
+        <c:axId val="985142816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1274,7 +1303,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-419684736"/>
+        <c:crossAx val="985141184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1883,16 +1912,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2180,7 +2209,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2195,16 +2224,19 @@
       <c r="C1" t="s">
         <v>46</v>
       </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
       <c r="C2">
-        <v>0.68402581866400003</v>
+        <v>-0.31961275139099998</v>
       </c>
       <c r="F2" t="s">
         <v>47</v>
@@ -2212,13 +2244,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.41432645311600003</v>
+        <v>-0.14096014415300001</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2229,13 +2261,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.424874540154</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2246,13 +2278,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.67298349015699999</v>
+        <v>5.3062430478299998E-2</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2263,13 +2295,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.14096014415300001</v>
+        <v>0.33270441373100001</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2280,126 +2312,138 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.3062430478299998E-2</v>
+        <v>0.39408501523900002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.889931319602</v>
+        <v>0.41145468558699999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.93265086206900005</v>
+        <v>0.41432645311600003</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.81347800235500001</v>
+        <v>0.424874540154</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.71966581152599995</v>
+        <v>0.43243509258200002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.95949074074100005</v>
+        <v>0.43247878772300002</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.60353111226</v>
+        <v>0.49492023107999999</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.96343143739000003</v>
+        <v>0.50550076816599998</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.94567863663999996</v>
+        <v>0.54481583231599995</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.95388168074599999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.61124819564900001</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.87105468669700004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.39254260016699999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2410,316 +2454,326 @@
         <v>0.47089669426899999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.60353111226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.704133064516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.71449878278000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0.81347800235500001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0.448496996491</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="C19">
-        <v>0.93843452134799998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
+      <c r="B24">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>0.75822516114100003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0.93198998178500003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
+      <c r="C24">
+        <v>0.67298349015699999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>-0.31961275139099998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0.43243509258200002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0.704133064516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>0.43247878772300002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.68402581866400003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26">
-        <v>0.448496996491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.71966581152599995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0.98991935483899995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.72377704462699999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0.95712688323899997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.72824877291099999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>0.61124819564900001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.75727489659299996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0.41145468558699999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.75822516114100003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>0.49492023107999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
+        <v>0.77752578787799997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>0.91229978132400003</v>
+        <v>0.87105468669700004</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
+      <c r="A33" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0.930865836901</v>
+        <v>0.889931319602</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
+      <c r="A34" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>0.50550076816599998</v>
+        <v>0.91229978132400003</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
+      <c r="A35" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0.72377704462699999</v>
+        <v>0.91294521637299997</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
+      <c r="A36" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>0.33270441373100001</v>
+        <v>0.930865836901</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
+      <c r="A37" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>0.39408501523900002</v>
+        <v>0.93198998178500003</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
+      <c r="A38" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>0.77752578787799997</v>
+        <v>0.93265086206900005</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
+      <c r="A39" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0.91294521637299997</v>
+        <v>0.93843452134799998</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
+      <c r="A40" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>0.71449878278000001</v>
+        <v>0.93860887096800005</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
+      <c r="A41" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>0.93860887096800005</v>
+        <v>0.94567863663999996</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
+      <c r="A42" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>1.2500000000000001E-2</v>
+        <v>0.95388168074599999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
+      <c r="A43" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.39254260016699999</v>
+        <v>0.95712688323899997</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
+      <c r="A44" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0.75727489659299996</v>
+        <v>0.95949074074100005</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
+      <c r="A45" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>0.72824877291099999</v>
+        <v>0.96343143739000003</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
+      <c r="A46" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>0.54481583231599995</v>
+        <v>0.98991935483899995</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B46"/>
+  <autoFilter ref="A1:D46">
+    <sortState ref="A2:D46">
+      <sortCondition ref="B1:B46"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
